--- a/ServiceGenerated/SDKDesc/en-US/PubSub.json.xlsx
+++ b/ServiceGenerated/SDKDesc/en-US/PubSub.json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruyi\jade\commons\ServiceGenerated\SDKDesc\en-US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8836F9C8-A6AA-44CB-923F-9B15B97ECE06}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E361C-E6A4-4FA7-8E0B-B7F677139708}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,45 +25,24 @@
     <t>key</t>
   </si>
   <si>
-    <t>PublisherSubscriber.ServiceLaunchEventType</t>
-  </si>
-  <si>
     <t>The event type about service start/stop.</t>
   </si>
   <si>
-    <t>ServiceLaunchEventType.LowPowerStartOver</t>
-  </si>
-  <si>
     <t>All lower power services started.</t>
   </si>
   <si>
-    <t>ServiceLaunchEventType.HighPowerStartOver</t>
-  </si>
-  <si>
     <t>All high power services started.</t>
   </si>
   <si>
-    <t>ServiceLaunchEventType.BackToLowerPowerOver</t>
-  </si>
-  <si>
     <t>Back to low power from high power mode over.</t>
   </si>
   <si>
-    <t>PublisherSubscriber.ServiceLaunchEvent.EventType</t>
-  </si>
-  <si>
     <t>The event type.</t>
   </si>
   <si>
-    <t>PublisherSubscriber.ServiceLaunchEvent</t>
-  </si>
-  <si>
     <t>The event will be fired when service state changed.</t>
   </si>
   <si>
-    <t>PublisherSubscriber.ServiceLaunchEvent.LastServiceID</t>
-  </si>
-  <si>
     <t>The last service that cause the state change.</t>
   </si>
   <si>
@@ -91,19 +70,40 @@
     <t>The service input channel</t>
   </si>
   <si>
-    <t>PublisherSubscriber.SDKDataTypes</t>
-  </si>
-  <si>
     <t>The data defination of PublisherSubscriber</t>
   </si>
   <si>
-    <t>PublisherSubscriber.SDKServices</t>
-  </si>
-  <si>
     <t>The services of PublisherSubscriber</t>
   </si>
   <si>
     <t>en-US</t>
+  </si>
+  <si>
+    <t>PublisherSubscriber_ServiceLaunchEventType</t>
+  </si>
+  <si>
+    <t>ServiceLaunchEventType_LowPowerStartOver</t>
+  </si>
+  <si>
+    <t>ServiceLaunchEventType_HighPowerStartOver</t>
+  </si>
+  <si>
+    <t>ServiceLaunchEventType_BackToLowerPowerOver</t>
+  </si>
+  <si>
+    <t>PublisherSubscriber_ServiceLaunchEvent_EventType</t>
+  </si>
+  <si>
+    <t>PublisherSubscriber_ServiceLaunchEvent</t>
+  </si>
+  <si>
+    <t>PublisherSubscriber_ServiceLaunchEvent_LastServiceID</t>
+  </si>
+  <si>
+    <t>PublisherSubscriber_SDKDataTypes</t>
+  </si>
+  <si>
+    <t>PublisherSubscriber_SDKServices</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1073,111 +1073,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
